--- a/data/data_digitization/occurrence_data/1_raw_data/HJ-8-occ-entry.xlsx
+++ b/data/data_digitization/occurrence_data/1_raw_data/HJ-8-occ-entry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Desktop/LDP Internship/Harvey_Janszen_Legacy_Project/data/data_digitization/occurrence_data/1_raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27786157-A8B2-B646-B629-955B77D1AE16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4710671B-DC5B-5947-928D-668697CAE96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19560" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15400" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3905,7 +3905,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4193,7 +4193,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4203,10 +4203,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E2B542-A597-DF4D-A726-D9C00BB4087B}">
   <dimension ref="A1:AF215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="133" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="Q209" sqref="Q209"/>
+      <selection pane="bottomLeft" activeCell="C217" sqref="C217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15833,6 +15833,9 @@
       <c r="A207" s="4">
         <v>17</v>
       </c>
+      <c r="B207" s="4">
+        <v>1</v>
+      </c>
       <c r="C207" s="4" t="s">
         <v>326</v>
       </c>
@@ -15898,6 +15901,9 @@
       <c r="A208" s="4">
         <v>17</v>
       </c>
+      <c r="B208" s="4">
+        <v>2</v>
+      </c>
       <c r="C208" s="4" t="s">
         <v>390</v>
       </c>
@@ -15942,6 +15948,9 @@
       <c r="A209" s="4">
         <v>17</v>
       </c>
+      <c r="B209" s="4">
+        <v>3</v>
+      </c>
       <c r="C209" s="4" t="s">
         <v>391</v>
       </c>
@@ -15986,6 +15995,9 @@
       <c r="A210" s="4">
         <v>17</v>
       </c>
+      <c r="B210" s="4">
+        <v>4</v>
+      </c>
       <c r="C210" s="4" t="s">
         <v>392</v>
       </c>
@@ -16030,6 +16042,9 @@
       <c r="A211" s="4">
         <v>17</v>
       </c>
+      <c r="B211" s="4">
+        <v>5</v>
+      </c>
       <c r="C211" s="4" t="s">
         <v>37</v>
       </c>
@@ -16074,6 +16089,9 @@
       <c r="A212" s="4">
         <v>17</v>
       </c>
+      <c r="B212" s="4">
+        <v>6</v>
+      </c>
       <c r="C212" s="4" t="s">
         <v>50</v>
       </c>
@@ -16118,6 +16136,9 @@
       <c r="A213" s="4">
         <v>17</v>
       </c>
+      <c r="B213" s="4">
+        <v>7</v>
+      </c>
       <c r="C213" s="4" t="s">
         <v>394</v>
       </c>
@@ -16162,6 +16183,9 @@
       <c r="A214" s="4">
         <v>17</v>
       </c>
+      <c r="B214" s="4">
+        <v>8</v>
+      </c>
       <c r="C214" s="4" t="s">
         <v>395</v>
       </c>
@@ -16205,6 +16229,9 @@
     <row r="215" spans="1:28" ht="51" x14ac:dyDescent="0.2">
       <c r="A215" s="4">
         <v>17</v>
+      </c>
+      <c r="B215" s="4">
+        <v>9</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>396</v>
